--- a/biology/Médecine/Arturo_Iannaccone/Arturo_Iannaccone.xlsx
+++ b/biology/Médecine/Arturo_Iannaccone/Arturo_Iannaccone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arturo Iannaccone (né le 12 octobre 1956 à Avellino) est un médecin et un homme politique italien, membre du Mouvement pour les autonomies jusqu'en janvier 2010, puis du groupe mixte et enfin de Peuple et territoire (ex-Initiative responsable) jusqu'au 3 novembre 2011. Il a été élu député dans la circonscription Campanie 2. Il fait partie de Nous le Sud et de la coalition Grande Sud.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé en médecine et en chirurgie et spécialisé en chirurgie d'urgence et en endocrinochirurgie, il a été assistant auprès de la chaire de Chirurgie d'urgence du Secondo Policlinico de Naples. Ensuite, il est devenu spécialiste dans des cabinets de chirurgie générale dans les ASL de la province d'Avellino. 
 Inscrit à 18 ans à la Démocratie chrétienne, il en fait partie jusqu'à sa dissolution en 1994. Il adhère alors au Centro Cristiano Democratico (CCD) et il se porte candidat, à la Chambre, dans la circonscription uninominale XX (Campanie 2) en coalition avec Forza Italia, UDC et le Pôle libéral-démocrate, sans être élu. 
